--- a/Digit_recognition_10Best_networks.xlsx
+++ b/Digit_recognition_10Best_networks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ishfi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishfi\IdeaProjects\psi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
   <si>
     <t>Epoka</t>
   </si>
@@ -70,11 +70,20 @@
   <si>
     <t>3 Network</t>
   </si>
+  <si>
+    <t>&lt;-error count</t>
+  </si>
+  <si>
+    <t>Pass:</t>
+  </si>
+  <si>
+    <t>For 10 networks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -96,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,16 +113,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,9 +149,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -360,6 +380,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9FD-475A-8418-2C56F762EB6A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -526,9 +551,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -960,6 +985,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEFA-4F5C-94CB-5674B192391A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1125,10 +1155,4172 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$D$63</c:f>
+              <c:strCache>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>3.9544864313952899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2610684867090101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74410374069072505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51323986303141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39060200975163001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31689738573871201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26788445486770002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.232623560112734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20572312003700399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.184296828795875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.166678297861347</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15183961853079</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13911026268087501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12803209228158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.118279839288536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.109614997999907</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10185777348041999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4869315813489799E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8540090133872096E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2782050659397005E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7523248435737199E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2704036562001695E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8274346682950696E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4191697365027195E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0419711049977301E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.6926990167899497E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3686250942697002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0673645035970098E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7868220297733799E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5251486174667302E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2807059092537902E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0520369880645501E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8378420025066202E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6369576873579001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4483400301662498E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.27104950772499E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1042384429627201E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9471401269972001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.79905942205909E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6593646151525999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5274803342123401E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.4028813713381801E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2850872837240001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1736576637872099E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0681879869492902E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.96830595939563E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8736682996092598E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7839578970228399E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6988812991399399E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6181664852316899E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5415608904422701E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.46882964901527E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.39975402952403E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3341300385667399E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.27176717246483E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2124872991557401E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.15612365476386E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1025199413158399E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0515295137856E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.00301464614481E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.5684586738970807E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.7066344901166898E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-737A-42F7-8911-747468887868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>2.4953523062695599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0295009967736899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60974365959560395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42121188874374399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.323558248019024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.265276596365003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22601921984068499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19712030034003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17453709640354501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15618394276575101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14087063807151201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12785368393355001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.116633376215742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.106854853278657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.82557724913731E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0636354353476598E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.38409775598149E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7746202070682197E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2252623478561706E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7279145989263101E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2758852350453601E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8635964599209202E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4863569323051101E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.1401889654724101E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8216954823798099E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5279563017267398E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2564463514747498E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0049704791324199E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7716109725676399E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5546849249308003E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3527093056181401E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1643721249590598E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.9885084637355602E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8240804210979398E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6701602446038902E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5259160640439201E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3905997705783201E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2635366745668101E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.14411664653892E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0317865012466099E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9260434284594001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8264293088988501E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7325257815297201E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.64394995087438E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5603506412595799E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.48140511982272E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4068162223779599E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3363098263932401E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.26963262376651E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.20655015313263E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1468450573371199E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.09031553667925E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.03677397271939E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.8604570099445395E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.0475267457475801E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-737A-42F7-8911-747468887868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$G$63</c:f>
+              <c:strCache>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>2.43395488554633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1865218632227601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70785329813720299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48689353929539703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37132259914677601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.302831504619062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25745547641398903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.224621148618599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19930025020896899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.178900805114247</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16196863630696401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14761732409179501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13526497163155299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.124505733906296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11504311193361499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.106652915310833</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9161260084555905E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.2430656061370506E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.6350728444160404E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0831760589653703E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.5800049586425194E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1194480394821597E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.6963948946377805E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.3065393406308304E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9462270652175603E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.6123364334385799E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3021843376767901E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0134511879429501E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.74412068096048E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.4924310848500099E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2568355711374697E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0359697090779599E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8286246702403999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6337250159398003E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4503101857338202E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2775189925742597E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1145765742177301E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.96078336196487E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.81550571463904E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.67816793379618E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5482454298466801E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.4252588513519101E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.3087690237148701E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.198372570706E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0936981141993102E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9944029652546699E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9001702341318101E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8107062986326101E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7257385798648901E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6450135825160299E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5682951633445699E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.49536299709994E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4260112136715601E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.36004718411275E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.2972904364147299E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.23757168462892E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1807319572374899E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1266218126241999E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.07510063115698E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.02603597480818E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.7930300644663796E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.8520366501092101E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-737A-42F7-8911-747468887868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2:$J$58</c:f>
+              <c:strCache>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>2.5874403646037401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1595191103043401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73565584580259502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52226180451997695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40153023685170802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.325529351937344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.273230450598831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.234747105280703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20503602798415799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.181298135159012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16185155382003799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145613919071274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.131849029640666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.120034233270168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10978613727044</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.100816268743412</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2903115188242305E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5873684638192199E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9590905580089605E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3944774806473795E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8845999164026103E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4221344630447999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0010180939899703E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6161878974622097E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.2633826004683797E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9389894763715303E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6399250057031202E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.3635409303705401E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1075496183412497E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8699642623107301E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6490505828015697E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4432875340555801E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.25133511491583E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.07200783166637E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9042526905276402E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7471308456944E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.59980221670006E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.46151253235408E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3315823689316801E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2093978359672899E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0944026299616499E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9860912290182199E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.8840030431890802E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.78771736861741E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.69684902028444E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6110445397281899E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5299788915884901E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4533525770883E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3808891042369801E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3123327641462601E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.24744667078357E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1860110280669901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.12782159368201E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.07268831357321E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.02043410489569E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.7089376843039702E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.9191693189237296E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-737A-42F7-8911-747468887868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$57</c:f>
+              <c:strCache>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>2.6558118373667998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.31957959097377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84535015285793602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59136262626118097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44253772705954503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34780381389599402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.283230411439783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23684021375261499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.202164742454955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.175441278246111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15433331309391199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13731120747824399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12333226037494199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.111663952123863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.101779864515902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3294919030022405E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5923257839474201E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9449915394423504E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3711286075537702E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.85814064672427E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3962185204184299E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9776366045961898E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5962411417131097E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2470750789507602E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.9261008060880102E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6299936769935199E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3559870779320699E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.10175528828087E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8653242316738799E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6450029442895299E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4393305328575298E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2470347909267498E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.06699964897309E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8982393642466301E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.7398778886372498E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5911322429228702E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.45129901306264E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.31974329690404E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1958895879921701E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0792142016532601E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9692389376872999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8655257414874098E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.76767217677276E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6753075624562699E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5880896564691199E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5057017928448499E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4278503966740101E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.35426281590039E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.28468542026233E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2188819266779101E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1566319175561E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.09772952428386E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0419822527977201E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.8920993193015103E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.2753799512791503E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-737A-42F7-8911-747468887868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$120</c:f>
+              <c:strCache>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$68:$B$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>2.3407584789298501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03109767536698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67427689624380605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48774545207000097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375778746280233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30206547693123498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25017993168635799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21185465293293301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18251937677146901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15943992171850899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.140874630386946</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12565963106228301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.112988471268643</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.102286549302309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3135214479245207E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5223675275539396E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.83173966534641E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2236743943974696E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6842231847028102E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2024153107493901E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7695175625171298E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3784987140611799E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.02363731889576E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7002311275045602E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4043794029472297E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1328181038173699E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8827938095749998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6519663242886698E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4383327174727397E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2401675420730199E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0559753734915401E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8844528171277001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7244578556294499E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5749849333966401E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.43514456189057E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.30414651472109E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.18128589422583E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0659315110833101E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9575161395078901E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.85552830288351E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7595053156322399E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6690273620244198E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.58371243543768E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5032119951613101E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4272072243748799E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.35540579402123E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.28753905416151E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2233595879687901E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1626390744917999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1051664152454401E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.05074608697908E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9919668896309294E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.2017528848369403E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-737A-42F7-8911-747468887868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$68:$D$127</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$68:$E$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.2674452810543602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0138461250158599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66640767436801296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48733358103626001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.381495440026697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31226706212823602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26357676357669702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22749896632702901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19969364745423901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17758612956398101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15955693110267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14454161696727799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.131815661665416</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12087111855939101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.111342463415719</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.102960360294097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5521995645005797E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8871579888261901E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2887256559331393E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7472139118703098E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2548057935968399E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8051118005352199E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.3928486672810106E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.01360305658745E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6636548342684299E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.3398428250692097E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0394613429504298E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7601793659936803E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4999766271777E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2570925244145699E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0299848770817499E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8172963404469601E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.6178268439777998E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4305108171684702E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2543982555451399E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0886388924419899E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.9324689010712199E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7851996715279902E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.64620829923168E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5149294923325499E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.39084866109304E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2734959959929701E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1624413760849601E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0572899769879801E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9576784703830299E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.86327172511782E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.77375993491754E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6888561099122699E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6082938792550398E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5318255604298E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.45922045776102E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3902633583950301E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3247531988349499E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.26250187914247E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.2033332053064401E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.14708194312958E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.09359296939082E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.04272050807504E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.9432744118597705E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9905666637748E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-737A-42F7-8911-747468887868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$68:$G$122</c:f>
+              <c:strCache>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$68:$H$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>2.20015929305998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95756193843244097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57828888105821097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39591152314359701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.296203886362369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23562764868843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19554002301638801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16718700773877601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.146076553035176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12971286979219401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.116612896976795</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.105845802077627</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6801137639395102E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9064088432008207E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2344329120661905E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6433435653796206E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1178364091872504E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6464401409087701E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2203916800117699E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8328775802370003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4785125687457303E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1529748192648599E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8527467008898199E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5749276662511003E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3170972278318301E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0772132136458597E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8535352166425597E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6445662763003199E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4490079243716901E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2657251471623801E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0937187922232701E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9321036253452899E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7800907206147699E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6369732056334E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5021146282747E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.37493938914464E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2549248147158502E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1415945433173801E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0345129691054901E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9332805443689201E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.83752978268658E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7469218378989501E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.66114355899722E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5799049406512999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.50293690449868E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.42998935847741E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3608294911442E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.29524026562629E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.23301908403919E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.17397659818638E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.117935646393E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0647302996082301E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0142050025936201E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.6621379821553496E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.81958566431746E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-737A-42F7-8911-747468887868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$68:$J$122</c:f>
+              <c:strCache>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$68:$K$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>2.9957726979735799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3570297379081799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79969489815600903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52969697614487199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38241813466734498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29375376491050698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23596137173189199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19589641613575001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16676566752359701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14477303424548399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.127651985858066</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.113974697113698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10280281452683</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3498753088635506E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5617519344013196E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8841524569280494E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2939681031377296E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7740895625283695E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3116446665374998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8968019470059002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5219439849723502E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1810874564119001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8694706185182901E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5832561481479801E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3193145119111202E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0750642485639102E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8483529333448702E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6373675384576601E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4405662548180199E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2566261374076602E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0844025284685501E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9228973271951599E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7712339623975801E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6286374867860701E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.49441861632918E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3679608321643002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2487098778959099E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1361651441229E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0298725503430998E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9294186230608999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.83442553586518E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7445469281221999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6594643578512699E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5788842743160499E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.50253541907415E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.43016658231156E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3615446554583899E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.29645293224764E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2346896192237699E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.17606652375126E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.12040789321183E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.06754938361376E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.01733713950336E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.6962697004596594E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.7858126327549097E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-737A-42F7-8911-747468887868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$68:$M$127</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$68:$N$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.84479049364317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06606185848602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63948676563672002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.441858859188349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33623440923221598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27292798333794099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23095002425025399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.200760850932199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17770312310881001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.159320137989446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14420787047000999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.131500649558837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12062869312268901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.111196892355789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.102920126083242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5586341716194206E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.90341094692184E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3138212094657604E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7799978530500496E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2940575925890705E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8496232285099296E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4414764966253202E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0653017158444802E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7174939272703298E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3950136154707798E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0952755404932597E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8160628405927199E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5554600496053997E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3118004042038499E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0836240412247399E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8696445627368098E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6687220817270202E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4798413253834301E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3020937148735302E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1346625943643798E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9768109718553901E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8278712773177599E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6872367519552399E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.554354165021E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4287176180341701E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.3098632452026702E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.19736465689238E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.09082900270239E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.98989355406478E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8942227247528101E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8035054623622499E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7174529555688201E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.63579661140239E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5582862644082599E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.48468858576771E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4147856655169599E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3483737451659801E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2852620814534799E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2252719248241501E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1682355985881099E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1139956667099601E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0624041798452499E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.01332199065202E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.6661813059945E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.7604352935102998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-737A-42F7-8911-747468887868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="489238959"/>
+        <c:axId val="489233551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="489238959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489233551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="489233551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489238959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1572,6 +5764,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B47B-4CCA-AB94-4AA357A84F29}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1738,9 +5935,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2174,6 +6371,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9978-464C-B518-6B07992E3DCC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2340,9 +6542,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2786,6 +6988,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BDC-4426-944D-4454F62AE7CB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2952,9 +7159,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3356,6 +7563,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCA8-4A82-AD2E-61048D74D718}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3522,9 +7734,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3914,6 +8126,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F6D-4909-BB04-A3FB892F68C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4080,9 +8297,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4514,6 +8731,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7449-4F28-847A-71A8A41B5F73}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4680,9 +8902,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5084,6 +9306,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B3A-463C-B551-C5BC826C5EDD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5250,9 +9477,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5654,6 +9881,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F909-4A93-A03B-E6C13DBDEC0C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5860,6 +10092,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7225,6 +11497,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -11567,13 +16342,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Wykres 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11611,7 +16416,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11683,7 +16488,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11833,10 +16638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N372"/>
+  <dimension ref="A1:P391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="A365" sqref="A365"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15563,17 +20368,17 @@
         <v>6.7604352935102998E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K139" t="s">
         <v>1</v>
       </c>
@@ -15581,7 +20386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K140">
         <v>0</v>
       </c>
@@ -15589,15 +20394,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K141">
         <v>1</v>
       </c>
       <c r="L141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P141" s="3">
+        <f>(L149+L173+L196+L222+L247+L271+L298+L323+L350+L375)/10</f>
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K142">
         <v>2</v>
       </c>
@@ -15605,7 +20414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K143">
         <v>3</v>
       </c>
@@ -15613,7 +20422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K144">
         <v>7</v>
       </c>
@@ -15621,7 +20430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K145">
         <v>8</v>
       </c>
@@ -15629,7 +20438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K146">
         <v>9</v>
       </c>
@@ -15637,12 +20446,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K147" s="2">
+        <v>7</v>
+      </c>
+      <c r="L147" s="2">
+        <v>1</v>
+      </c>
+      <c r="M147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K149" t="s">
+        <v>16</v>
+      </c>
+      <c r="L149" s="3">
+        <f>100%-(L147/K147)</f>
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K163" t="s">
         <v>1</v>
       </c>
@@ -15650,7 +20479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K164">
         <v>0</v>
       </c>
@@ -15658,7 +20487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K165">
         <v>1</v>
       </c>
@@ -15666,7 +20495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K166">
         <v>2</v>
       </c>
@@ -15674,7 +20503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K167">
         <v>3</v>
       </c>
@@ -15682,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K168">
         <v>7</v>
       </c>
@@ -15690,7 +20519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K169">
         <v>8</v>
       </c>
@@ -15698,12 +20527,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K170">
         <v>9</v>
       </c>
       <c r="L170">
         <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K171" s="2">
+        <v>7</v>
+      </c>
+      <c r="L171" s="2">
+        <v>3</v>
+      </c>
+      <c r="M171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K173" t="s">
+        <v>16</v>
+      </c>
+      <c r="L173" s="3">
+        <f>100%-(L171/K171)</f>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -15767,7 +20616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K193">
         <v>9</v>
       </c>
@@ -15775,12 +20624,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K194" s="2">
+        <v>7</v>
+      </c>
+      <c r="L194" s="2">
+        <v>0</v>
+      </c>
+      <c r="M194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K196" t="s">
+        <v>16</v>
+      </c>
+      <c r="L196" s="3">
+        <f>100%-(L194/K194)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K212" t="s">
         <v>1</v>
       </c>
@@ -15788,7 +20657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K213">
         <v>0</v>
       </c>
@@ -15796,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K214">
         <v>1</v>
       </c>
@@ -15804,7 +20673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K215">
         <v>2</v>
       </c>
@@ -15812,7 +20681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K216">
         <v>3</v>
       </c>
@@ -15820,7 +20689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K217">
         <v>7</v>
       </c>
@@ -15828,7 +20697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K218">
         <v>8</v>
       </c>
@@ -15836,12 +20705,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K219">
         <v>9</v>
       </c>
       <c r="L219">
         <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K220" s="2">
+        <v>7</v>
+      </c>
+      <c r="L220" s="2">
+        <v>3</v>
+      </c>
+      <c r="M220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K222" t="s">
+        <v>16</v>
+      </c>
+      <c r="L222" s="3">
+        <f>100%-(L220/K220)</f>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -15881,7 +20770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K241">
         <v>3</v>
       </c>
@@ -15889,7 +20778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K242">
         <v>7</v>
       </c>
@@ -15897,7 +20786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K243">
         <v>8</v>
       </c>
@@ -15905,7 +20794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K244">
         <v>9</v>
       </c>
@@ -15913,12 +20802,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K245" s="2">
+        <v>7</v>
+      </c>
+      <c r="L245" s="2">
+        <v>0</v>
+      </c>
+      <c r="M245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K247" t="s">
+        <v>16</v>
+      </c>
+      <c r="L247" s="3">
+        <f>100%-(L245/K245)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K261" t="s">
         <v>1</v>
       </c>
@@ -15926,7 +20835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K262">
         <v>0</v>
       </c>
@@ -15934,7 +20843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K263">
         <v>1</v>
       </c>
@@ -15942,7 +20851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K264">
         <v>2</v>
       </c>
@@ -15950,7 +20859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K265">
         <v>3</v>
       </c>
@@ -15958,7 +20867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K266">
         <v>7</v>
       </c>
@@ -15966,7 +20875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K267">
         <v>8</v>
       </c>
@@ -15974,12 +20883,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K268">
         <v>9</v>
       </c>
       <c r="L268">
         <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K269" s="2">
+        <v>7</v>
+      </c>
+      <c r="L269" s="2">
+        <v>2</v>
+      </c>
+      <c r="M269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K271" t="s">
+        <v>16</v>
+      </c>
+      <c r="L271" s="3">
+        <f>100%-(L269/K269)</f>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -15995,7 +20924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K289">
         <v>0</v>
       </c>
@@ -16003,7 +20932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K290">
         <v>1</v>
       </c>
@@ -16011,7 +20940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K291">
         <v>2</v>
       </c>
@@ -16019,7 +20948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K292">
         <v>3</v>
       </c>
@@ -16027,7 +20956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K293">
         <v>7</v>
       </c>
@@ -16035,7 +20964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K294">
         <v>8</v>
       </c>
@@ -16043,12 +20972,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K295">
         <v>9</v>
       </c>
       <c r="L295">
         <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K296" s="2">
+        <v>7</v>
+      </c>
+      <c r="L296" s="2">
+        <v>3</v>
+      </c>
+      <c r="M296" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K298" t="s">
+        <v>16</v>
+      </c>
+      <c r="L298" s="3">
+        <f>100%-(L296/K296)</f>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
@@ -16120,12 +21069,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K321" s="2">
+        <v>7</v>
+      </c>
+      <c r="L321" s="2">
+        <v>3</v>
+      </c>
+      <c r="M321" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K323" t="s">
+        <v>16</v>
+      </c>
+      <c r="L323" s="3">
+        <f>100%-(L321/K321)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K340" t="s">
         <v>1</v>
       </c>
@@ -16133,7 +21102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K341">
         <v>0</v>
       </c>
@@ -16141,7 +21110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K342">
         <v>1</v>
       </c>
@@ -16149,7 +21118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K343">
         <v>2</v>
       </c>
@@ -16157,7 +21126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K344">
         <v>3</v>
       </c>
@@ -16165,7 +21134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K345">
         <v>7</v>
       </c>
@@ -16173,7 +21142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K346">
         <v>8</v>
       </c>
@@ -16181,12 +21150,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K347">
         <v>9</v>
       </c>
       <c r="L347">
         <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K348" s="2">
+        <v>7</v>
+      </c>
+      <c r="L348" s="2">
+        <v>0</v>
+      </c>
+      <c r="M348" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K350" t="s">
+        <v>16</v>
+      </c>
+      <c r="L350" s="3">
+        <f>100%-(L348/K348)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
@@ -16226,7 +21215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K369">
         <v>3</v>
       </c>
@@ -16234,7 +21223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K370">
         <v>7</v>
       </c>
@@ -16242,7 +21231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K371">
         <v>8</v>
       </c>
@@ -16250,12 +21239,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K372">
         <v>9</v>
       </c>
       <c r="L372">
         <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K373" s="2">
+        <v>7</v>
+      </c>
+      <c r="L373" s="2">
+        <v>0</v>
+      </c>
+      <c r="M373" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K375" t="s">
+        <v>16</v>
+      </c>
+      <c r="L375" s="3">
+        <f>100%-(L373/K373)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
